--- a/python/bassmine_analysis/BS_model.xlsx
+++ b/python/bassmine_analysis/BS_model.xlsx
@@ -9,15 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="540" yWindow="840" windowWidth="28160" windowHeight="16740" tabRatio="500"/>
+    <workbookView xWindow="540" yWindow="840" windowWidth="28160" windowHeight="16740" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="initial" localSheetId="0">Hoja1!$B$39:$Q$40</definedName>
     <definedName name="interlocking_1" localSheetId="0">Hoja1!$B$20:$Q$35</definedName>
     <definedName name="temporal_1" localSheetId="0">Hoja1!$B$2:$Q$17</definedName>
+    <definedName name="temporal_1" localSheetId="2">Hoja2!$B$6:$Q$21</definedName>
+    <definedName name="temporal_1" localSheetId="1">Hoja3!$B$6:$Q$21</definedName>
+    <definedName name="temporal_2" localSheetId="2">Hoja2!$B$24:$Q$39</definedName>
+    <definedName name="temporal_2" localSheetId="1">Hoja3!$B$24:$Q$39</definedName>
+    <definedName name="temporal_3" localSheetId="2">Hoja2!$B$42:$Q$57</definedName>
+    <definedName name="temporal_3" localSheetId="1">Hoja3!$B$42:$Q$57</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -99,11 +107,121 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="4" name="temporal1" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Users/Pere/Github Repo/BassMine/BassMine-master/python/bassmine_analysis/temporal.csv" decimal="," thousands="." tab="0" comma="1">
+      <textFields count="16">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="5" name="temporal2" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Users/Pere/Github Repo/BassMine/BassMine-master/python/bassmine_analysis/temporal.csv" decimal="," thousands="." tab="0" comma="1">
+      <textFields count="16">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="6" name="temporal3" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Users/Pere/Github Repo/BassMine/BassMine-master/python/bassmine_analysis/temporal.csv" decimal="," thousands="." tab="0" comma="1">
+      <textFields count="16">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="7" name="temporal4" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Users/Pere/Github Repo/BassMine/BassMine-master/python/bassmine_analysis/temporal.csv" decimal="," thousands="." tab="0" comma="1">
+      <textFields count="16">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="8" name="temporal5" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Users/Pere/Github Repo/BassMine/BassMine-master/python/bassmine_analysis/temporal.csv" decimal="," thousands="." tab="0" comma="1">
+      <textFields count="16">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2111" uniqueCount="77">
   <si>
     <t>0.0</t>
   </si>
@@ -323,12 +441,24 @@
   <si>
     <t>0.18181818181818182</t>
   </si>
+  <si>
+    <t>KICK PATTERN</t>
+  </si>
+  <si>
+    <t>Deleted</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>KICK</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -344,8 +474,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,8 +502,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -373,11 +517,180 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -390,6 +703,75 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,6 +796,30 @@
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="temporal_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="temporal_3" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="temporal_2" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="temporal_1" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="temporal_3" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="temporal_2" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="temporal_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -681,8 +1087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView showRuler="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection sqref="A1:Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -692,12 +1098,15 @@
     <col min="3" max="3" width="21.83203125" customWidth="1"/>
     <col min="4" max="5" width="4" customWidth="1"/>
     <col min="6" max="6" width="21.83203125" customWidth="1"/>
-    <col min="7" max="9" width="4" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="4" customWidth="1"/>
     <col min="10" max="11" width="20.83203125" customWidth="1"/>
     <col min="12" max="12" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4" customWidth="1"/>
     <col min="14" max="14" width="21.83203125" customWidth="1"/>
-    <col min="15" max="17" width="4" customWidth="1"/>
+    <col min="15" max="15" width="12.5" customWidth="1"/>
+    <col min="16" max="17" width="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
@@ -2608,4 +3017,5688 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="M2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="O2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="41">
+        <v>0</v>
+      </c>
+      <c r="C5" s="42">
+        <v>1</v>
+      </c>
+      <c r="D5" s="43">
+        <v>2</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="41">
+        <v>4</v>
+      </c>
+      <c r="G5" s="42">
+        <v>5</v>
+      </c>
+      <c r="H5" s="43">
+        <v>6</v>
+      </c>
+      <c r="I5" s="1">
+        <v>7</v>
+      </c>
+      <c r="J5" s="41">
+        <v>8</v>
+      </c>
+      <c r="K5" s="42">
+        <v>9</v>
+      </c>
+      <c r="L5" s="43">
+        <v>10</v>
+      </c>
+      <c r="M5" s="5">
+        <v>11</v>
+      </c>
+      <c r="N5" s="41">
+        <v>12</v>
+      </c>
+      <c r="O5" s="42">
+        <v>13</v>
+      </c>
+      <c r="P5" s="43">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>15</v>
+      </c>
+      <c r="S5" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="40">
+        <v>1</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="P7" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>3</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="O9" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="P9" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="40">
+        <v>4</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="P10" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>5</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N11" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="O11" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="P11" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>6</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="P12" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>7</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="O13" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="P13" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="41">
+        <v>8</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="O14" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="P14" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="57">
+        <v>9</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="M15" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="N15" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="P15" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="58">
+        <v>10</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="M16" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="N16" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="O16" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="P16" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>11</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="L17" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N17" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="O17" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="P17" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="40">
+        <v>12</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="L18" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="N18" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O18" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="P18" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>13</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="K19" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="L19" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N19" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="O19" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="P19" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>14</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="K20" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N20" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="O20" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="P20" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>15</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="L21" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N21" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="O21" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="P21" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
+      <c r="E23" s="5">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1">
+        <v>4</v>
+      </c>
+      <c r="G23" s="1">
+        <v>5</v>
+      </c>
+      <c r="H23" s="1">
+        <v>6</v>
+      </c>
+      <c r="I23" s="1">
+        <v>7</v>
+      </c>
+      <c r="J23" s="1">
+        <v>8</v>
+      </c>
+      <c r="K23" s="1">
+        <v>9</v>
+      </c>
+      <c r="L23" s="1">
+        <v>10</v>
+      </c>
+      <c r="M23" s="5">
+        <v>11</v>
+      </c>
+      <c r="N23" s="1">
+        <v>12</v>
+      </c>
+      <c r="O23" s="1">
+        <v>13</v>
+      </c>
+      <c r="P23" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>15</v>
+      </c>
+      <c r="S23" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>0</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>2</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <v>3</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>4</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>5</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>6</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
+        <v>7</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>8</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>9</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>10</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
+        <v>11</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>12</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>13</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>14</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A39" s="5">
+        <v>15</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O39" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P39" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2</v>
+      </c>
+      <c r="E41" s="5">
+        <v>3</v>
+      </c>
+      <c r="F41" s="1">
+        <v>4</v>
+      </c>
+      <c r="G41" s="1">
+        <v>5</v>
+      </c>
+      <c r="H41" s="1">
+        <v>6</v>
+      </c>
+      <c r="I41" s="1">
+        <v>7</v>
+      </c>
+      <c r="J41" s="1">
+        <v>8</v>
+      </c>
+      <c r="K41" s="1">
+        <v>9</v>
+      </c>
+      <c r="L41" s="1">
+        <v>10</v>
+      </c>
+      <c r="M41" s="5">
+        <v>11</v>
+      </c>
+      <c r="N41" s="1">
+        <v>12</v>
+      </c>
+      <c r="O41" s="1">
+        <v>13</v>
+      </c>
+      <c r="P41" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>15</v>
+      </c>
+      <c r="S41" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>0</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P42" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>1</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M43" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P43" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>2</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q44" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
+        <v>3</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O45" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P45" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>4</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O46" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P46" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>5</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M47" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O47" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P47" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>6</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O48" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P48" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A49" s="5">
+        <v>7</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O49" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P49" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>8</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M50" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O50" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P50" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>9</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M51" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P51" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>10</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="P52" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A53" s="5">
+        <v>11</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O53" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P53" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>12</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O54" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P54" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>13</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M55" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O55" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P55" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>14</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N56" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O56" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P56" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A57" s="5">
+        <v>15</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M57" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N57" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O57" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P57" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T57"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="19" max="19" width="15.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>73</v>
+      </c>
+      <c r="T1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="M2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="O2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>8</v>
+      </c>
+      <c r="T2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>6</v>
+      </c>
+      <c r="I5" s="1">
+        <v>7</v>
+      </c>
+      <c r="J5" s="1">
+        <v>8</v>
+      </c>
+      <c r="K5" s="1">
+        <v>9</v>
+      </c>
+      <c r="L5" s="1">
+        <v>10</v>
+      </c>
+      <c r="M5" s="5">
+        <v>11</v>
+      </c>
+      <c r="N5" s="1">
+        <v>12</v>
+      </c>
+      <c r="O5" s="1">
+        <v>13</v>
+      </c>
+      <c r="P5" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>15</v>
+      </c>
+      <c r="S5" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>3</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>4</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="P10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>6</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>7</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>8</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="O14" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="P14" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>9</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="M15" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="N15" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="P15" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>10</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="M16" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="N16" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="O16" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="P16" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>11</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>12</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="K18" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="N18" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="O18" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="P18" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>13</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>14</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>15</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="13">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
+      <c r="E23" s="5">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1">
+        <v>4</v>
+      </c>
+      <c r="G23" s="1">
+        <v>5</v>
+      </c>
+      <c r="H23" s="1">
+        <v>6</v>
+      </c>
+      <c r="I23" s="1">
+        <v>7</v>
+      </c>
+      <c r="J23" s="1">
+        <v>8</v>
+      </c>
+      <c r="K23" s="1">
+        <v>9</v>
+      </c>
+      <c r="L23" s="1">
+        <v>10</v>
+      </c>
+      <c r="M23" s="5">
+        <v>11</v>
+      </c>
+      <c r="N23" s="1">
+        <v>12</v>
+      </c>
+      <c r="O23" s="1">
+        <v>13</v>
+      </c>
+      <c r="P23" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>15</v>
+      </c>
+      <c r="S23" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>0</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>2</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <v>3</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>4</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>5</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>6</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
+        <v>7</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>8</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="40">
+        <v>9</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I33" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="L33" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M33" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="N33" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="O33" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="P33" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>10</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
+        <v>11</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>12</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>13</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>14</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>15</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O39" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P39" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="41">
+        <v>0</v>
+      </c>
+      <c r="C41" s="42">
+        <v>1</v>
+      </c>
+      <c r="D41" s="43">
+        <v>2</v>
+      </c>
+      <c r="E41" s="5">
+        <v>3</v>
+      </c>
+      <c r="F41" s="41">
+        <v>4</v>
+      </c>
+      <c r="G41" s="42">
+        <v>5</v>
+      </c>
+      <c r="H41" s="43">
+        <v>6</v>
+      </c>
+      <c r="I41" s="1">
+        <v>7</v>
+      </c>
+      <c r="J41" s="41">
+        <v>8</v>
+      </c>
+      <c r="K41" s="42">
+        <v>9</v>
+      </c>
+      <c r="L41" s="43">
+        <v>10</v>
+      </c>
+      <c r="M41" s="5">
+        <v>11</v>
+      </c>
+      <c r="N41" s="41">
+        <v>12</v>
+      </c>
+      <c r="O41" s="42">
+        <v>13</v>
+      </c>
+      <c r="P41" s="43">
+        <v>14</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>15</v>
+      </c>
+      <c r="S41" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>0</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="H42" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J42" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K42" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="L42" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N42" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="O42" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="P42" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="40">
+        <v>1</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F43" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H43" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J43" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K43" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="L43" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="M43" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="N43" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O43" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="P43" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>2</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F44" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J44" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="K44" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L44" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N44" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="O44" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="P44" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q44" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
+        <v>3</v>
+      </c>
+      <c r="B45" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F45" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="G45" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H45" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J45" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="K45" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="L45" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N45" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="O45" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="P45" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>4</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F46" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="H46" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J46" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="K46" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="L46" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N46" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="O46" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="P46" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>5</v>
+      </c>
+      <c r="B47" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F47" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="H47" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J47" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="K47" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="L47" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="M47" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N47" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="O47" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="P47" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>6</v>
+      </c>
+      <c r="B48" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F48" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="G48" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H48" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J48" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="K48" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="L48" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N48" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="O48" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="P48" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A49" s="5">
+        <v>7</v>
+      </c>
+      <c r="B49" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F49" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="G49" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H49" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J49" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="K49" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="L49" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N49" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="O49" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="P49" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>8</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F50" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G50" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="H50" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J50" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K50" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="L50" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="M50" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N50" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="O50" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="P50" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>9</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F51" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="G51" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="H51" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J51" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="K51" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="L51" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="M51" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N51" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="O51" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="P51" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>10</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F52" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="G52" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="H52" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J52" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="K52" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="L52" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N52" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="O52" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="P52" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A53" s="5">
+        <v>11</v>
+      </c>
+      <c r="B53" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F53" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="G53" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H53" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J53" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="K53" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="L53" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N53" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="O53" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="P53" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>12</v>
+      </c>
+      <c r="B54" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F54" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="G54" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="H54" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J54" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="K54" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="L54" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N54" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="O54" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="P54" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>13</v>
+      </c>
+      <c r="B55" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F55" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="G55" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="H55" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J55" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="K55" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="L55" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="M55" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N55" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="O55" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="P55" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>14</v>
+      </c>
+      <c r="B56" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F56" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="G56" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="H56" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J56" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="K56" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="L56" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N56" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="O56" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="P56" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>15</v>
+      </c>
+      <c r="B57" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F57" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="G57" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H57" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J57" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="K57" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="L57" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="M57" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N57" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="O57" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="P57" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>